--- a/biology/Médecine/Risque_relatif/Risque_relatif.xlsx
+++ b/biology/Médecine/Risque_relatif/Risque_relatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le risque relatif (RR) est une mesure statistique souvent utilisée en épidémiologie, mesurant le risque de survenue d'un événement dans un groupe par rapport à l’autre.
 Prenons le cas d'une étude ayant pour objectif de déterminer la différence de risque d'avoir une maladie (cancer du poumon par exemple) chez une population exposée à un facteur de risque (tabac chez une population de fumeurs) et chez une population témoin (non fumeur).
@@ -539,7 +551,9 @@
           <t>Différence avec le rapport de cotes (odds ratio)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rapport de cotes (odds ratio en anglais) est une autre statistique d'usage proche. Bien que la quantité associée n'ait pas de représentation intuitive, il présente deux avantages. Tout d'abord, il est calculable lorsque la prévalence d'une maladie n'est pas respectée. Il est donc calculable à la fois dans les enquêtes de « cohorte » où les patients constituent un échantillon représentatif d'une population générale, et dans une enquête « cas-témoins » où le quota de malades est déterminé à l'avance par rapport aux non-malades. Ensuite, l'odds ratio et son intervalle de confiance peuvent directement être obtenus à l'aide d'une régression logistique.
         O
@@ -627,7 +641,9 @@
           <t>Estimation du risque relatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le risque relatif peut s'estimer à partir d'une enquête de cohorte exposé / non exposé, c'est-à-dire un suivi dans le temps (longitudinal). L'estimateur du risque relatif est formé par le rapport de deux pourcentages observés. Reprenons l'exemple du tabagisme et du cancer du poumon. On observe une cohorte de 1000 fumeurs et 1000 non fumeurs. Après 20 ans de tabagisme, 10 ont développé un cancer des bronches chez les fumeurs et 5 chez les non fumeurs. Ceci est résumé dans le tableau suivant :
 Le risque relatif est estimé par :
@@ -740,7 +756,7 @@
         5.8
         ]
     {\displaystyle \mathrm {IC} 95\%(RR)=[0.7\,;5.8]}
-Remarque : Une méthode[1] basée sur l'utilisation de lois binomiales indique un intervalle 
+Remarque : Une méthode basée sur l'utilisation de lois binomiales indique un intervalle 
         [
         0.56
         ;
@@ -776,7 +792,9 @@
           <t>Test de la valeur du risque relatif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Usuellement, on comparera la valeur du risque relatif estimé à 1, afin de pouvoir conclure à l'existence d'un risque 
 augmenté (RR &gt;1) ou diminué (RR&lt;1).
